--- a/data/proshares_analysis_data.xlsx
+++ b/data/proshares_analysis_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/markhendricks/Projects/finm-portfolio/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shenchingfeng/Documents/FinMath/Autumn/Portfolio and Risk Management/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7906F24-0123-AB47-8D0C-5D39AB037842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F72855-A17B-F94D-8DEB-A768334D7EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30400" yWindow="-8500" windowWidth="25360" windowHeight="27980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="640" windowWidth="29400" windowHeight="18480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="descriptions" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -181,15 +181,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -504,149 +503,152 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -654,11 +656,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="274" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
@@ -682,7 +684,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="6">
+      <c r="A2" s="5">
         <v>40786</v>
       </c>
       <c r="B2">
@@ -702,7 +704,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="6">
+      <c r="A3" s="5">
         <v>40816</v>
       </c>
       <c r="B3">
@@ -722,7 +724,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>40847</v>
       </c>
       <c r="B4">
@@ -742,7 +744,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>40877</v>
       </c>
       <c r="B5">
@@ -762,7 +764,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>40908</v>
       </c>
       <c r="B6">
@@ -782,7 +784,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>40939</v>
       </c>
       <c r="B7">
@@ -802,7 +804,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>40968</v>
       </c>
       <c r="B8">
@@ -822,7 +824,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>40999</v>
       </c>
       <c r="B9">
@@ -842,7 +844,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>41029</v>
       </c>
       <c r="B10">
@@ -862,7 +864,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>41060</v>
       </c>
       <c r="B11">
@@ -882,7 +884,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>41090</v>
       </c>
       <c r="B12">
@@ -902,7 +904,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>41121</v>
       </c>
       <c r="B13">
@@ -922,7 +924,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>41152</v>
       </c>
       <c r="B14">
@@ -942,7 +944,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>41182</v>
       </c>
       <c r="B15">
@@ -962,7 +964,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>41213</v>
       </c>
       <c r="B16">
@@ -982,7 +984,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>41243</v>
       </c>
       <c r="B17">
@@ -1002,7 +1004,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>41274</v>
       </c>
       <c r="B18">
@@ -1022,7 +1024,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>41305</v>
       </c>
       <c r="B19">
@@ -1042,7 +1044,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>41333</v>
       </c>
       <c r="B20">
@@ -1062,7 +1064,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>41364</v>
       </c>
       <c r="B21">
@@ -1082,7 +1084,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>41394</v>
       </c>
       <c r="B22">
@@ -1102,7 +1104,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>41425</v>
       </c>
       <c r="B23">
@@ -1122,7 +1124,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>41455</v>
       </c>
       <c r="B24">
@@ -1142,7 +1144,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>41486</v>
       </c>
       <c r="B25">
@@ -1162,7 +1164,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>41517</v>
       </c>
       <c r="B26">
@@ -1182,7 +1184,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>41547</v>
       </c>
       <c r="B27">
@@ -1202,7 +1204,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>41578</v>
       </c>
       <c r="B28">
@@ -1222,7 +1224,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6">
+      <c r="A29" s="5">
         <v>41608</v>
       </c>
       <c r="B29">
@@ -1242,7 +1244,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="6">
+      <c r="A30" s="5">
         <v>41639</v>
       </c>
       <c r="B30">
@@ -1262,7 +1264,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6">
+      <c r="A31" s="5">
         <v>41670</v>
       </c>
       <c r="B31">
@@ -1282,7 +1284,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="6">
+      <c r="A32" s="5">
         <v>41698</v>
       </c>
       <c r="B32">
@@ -1302,7 +1304,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="6">
+      <c r="A33" s="5">
         <v>41729</v>
       </c>
       <c r="B33">
@@ -1322,7 +1324,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6">
+      <c r="A34" s="5">
         <v>41759</v>
       </c>
       <c r="B34">
@@ -1342,7 +1344,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="6">
+      <c r="A35" s="5">
         <v>41790</v>
       </c>
       <c r="B35">
@@ -1362,7 +1364,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
+      <c r="A36" s="5">
         <v>41820</v>
       </c>
       <c r="B36">
@@ -1382,7 +1384,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="6">
+      <c r="A37" s="5">
         <v>41851</v>
       </c>
       <c r="B37">
@@ -1402,7 +1404,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="6">
+      <c r="A38" s="5">
         <v>41882</v>
       </c>
       <c r="B38">
@@ -1422,7 +1424,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="6">
+      <c r="A39" s="5">
         <v>41912</v>
       </c>
       <c r="B39">
@@ -1442,7 +1444,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="6">
+      <c r="A40" s="5">
         <v>41943</v>
       </c>
       <c r="B40">
@@ -1462,7 +1464,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="6">
+      <c r="A41" s="5">
         <v>41973</v>
       </c>
       <c r="B41">
@@ -1482,7 +1484,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="6">
+      <c r="A42" s="5">
         <v>42004</v>
       </c>
       <c r="B42">
@@ -1502,7 +1504,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="6">
+      <c r="A43" s="5">
         <v>42035</v>
       </c>
       <c r="B43">
@@ -1522,7 +1524,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="6">
+      <c r="A44" s="5">
         <v>42063</v>
       </c>
       <c r="B44">
@@ -1542,7 +1544,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="6">
+      <c r="A45" s="5">
         <v>42094</v>
       </c>
       <c r="B45">
@@ -1562,7 +1564,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="6">
+      <c r="A46" s="5">
         <v>42124</v>
       </c>
       <c r="B46">
@@ -1582,7 +1584,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="6">
+      <c r="A47" s="5">
         <v>42155</v>
       </c>
       <c r="B47">
@@ -1602,7 +1604,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
+      <c r="A48" s="5">
         <v>42185</v>
       </c>
       <c r="B48">
@@ -1622,7 +1624,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="6">
+      <c r="A49" s="5">
         <v>42216</v>
       </c>
       <c r="B49">
@@ -1642,7 +1644,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="6">
+      <c r="A50" s="5">
         <v>42247</v>
       </c>
       <c r="B50">
@@ -1662,7 +1664,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="6">
+      <c r="A51" s="5">
         <v>42277</v>
       </c>
       <c r="B51">
@@ -1682,7 +1684,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="6">
+      <c r="A52" s="5">
         <v>42308</v>
       </c>
       <c r="B52">
@@ -1702,7 +1704,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="6">
+      <c r="A53" s="5">
         <v>42338</v>
       </c>
       <c r="B53">
@@ -1722,7 +1724,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="6">
+      <c r="A54" s="5">
         <v>42369</v>
       </c>
       <c r="B54">
@@ -1742,7 +1744,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="6">
+      <c r="A55" s="5">
         <v>42400</v>
       </c>
       <c r="B55">
@@ -1762,7 +1764,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="6">
+      <c r="A56" s="5">
         <v>42429</v>
       </c>
       <c r="B56">
@@ -1782,7 +1784,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="6">
+      <c r="A57" s="5">
         <v>42460</v>
       </c>
       <c r="B57">
@@ -1802,7 +1804,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="6">
+      <c r="A58" s="5">
         <v>42490</v>
       </c>
       <c r="B58">
@@ -1822,7 +1824,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="6">
+      <c r="A59" s="5">
         <v>42521</v>
       </c>
       <c r="B59">
@@ -1842,7 +1844,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="6">
+      <c r="A60" s="5">
         <v>42551</v>
       </c>
       <c r="B60">
@@ -1862,7 +1864,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="6">
+      <c r="A61" s="5">
         <v>42582</v>
       </c>
       <c r="B61">
@@ -1882,7 +1884,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="6">
+      <c r="A62" s="5">
         <v>42613</v>
       </c>
       <c r="B62">
@@ -1902,7 +1904,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="6">
+      <c r="A63" s="5">
         <v>42643</v>
       </c>
       <c r="B63">
@@ -1922,7 +1924,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="6">
+      <c r="A64" s="5">
         <v>42674</v>
       </c>
       <c r="B64">
@@ -1942,7 +1944,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="6">
+      <c r="A65" s="5">
         <v>42704</v>
       </c>
       <c r="B65">
@@ -1962,7 +1964,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="6">
+      <c r="A66" s="5">
         <v>42735</v>
       </c>
       <c r="B66">
@@ -1982,7 +1984,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="6">
+      <c r="A67" s="5">
         <v>42766</v>
       </c>
       <c r="B67">
@@ -2002,7 +2004,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="6">
+      <c r="A68" s="5">
         <v>42794</v>
       </c>
       <c r="B68">
@@ -2022,7 +2024,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="6">
+      <c r="A69" s="5">
         <v>42825</v>
       </c>
       <c r="B69">
@@ -2042,7 +2044,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="6">
+      <c r="A70" s="5">
         <v>42855</v>
       </c>
       <c r="B70">
@@ -2062,7 +2064,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="6">
+      <c r="A71" s="5">
         <v>42886</v>
       </c>
       <c r="B71">
@@ -2082,7 +2084,7 @@
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="6">
+      <c r="A72" s="5">
         <v>42916</v>
       </c>
       <c r="B72">
@@ -2102,7 +2104,7 @@
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="6">
+      <c r="A73" s="5">
         <v>42947</v>
       </c>
       <c r="B73">
@@ -2122,7 +2124,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="6">
+      <c r="A74" s="5">
         <v>42978</v>
       </c>
       <c r="B74">
@@ -2142,7 +2144,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="6">
+      <c r="A75" s="5">
         <v>43008</v>
       </c>
       <c r="B75">
@@ -2162,7 +2164,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="6">
+      <c r="A76" s="5">
         <v>43039</v>
       </c>
       <c r="B76">
@@ -2182,7 +2184,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="6">
+      <c r="A77" s="5">
         <v>43069</v>
       </c>
       <c r="B77">
@@ -2202,7 +2204,7 @@
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="6">
+      <c r="A78" s="5">
         <v>43100</v>
       </c>
       <c r="B78">
@@ -2222,7 +2224,7 @@
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="6">
+      <c r="A79" s="5">
         <v>43131</v>
       </c>
       <c r="B79">
@@ -2242,7 +2244,7 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="6">
+      <c r="A80" s="5">
         <v>43159</v>
       </c>
       <c r="B80">
@@ -2262,7 +2264,7 @@
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="6">
+      <c r="A81" s="5">
         <v>43190</v>
       </c>
       <c r="B81">
@@ -2282,7 +2284,7 @@
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="6">
+      <c r="A82" s="5">
         <v>43220</v>
       </c>
       <c r="B82">
@@ -2302,7 +2304,7 @@
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="6">
+      <c r="A83" s="5">
         <v>43251</v>
       </c>
       <c r="B83">
@@ -2322,7 +2324,7 @@
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="6">
+      <c r="A84" s="5">
         <v>43281</v>
       </c>
       <c r="B84">
@@ -2342,7 +2344,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="6">
+      <c r="A85" s="5">
         <v>43312</v>
       </c>
       <c r="B85">
@@ -2362,7 +2364,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="6">
+      <c r="A86" s="5">
         <v>43343</v>
       </c>
       <c r="B86">
@@ -2382,7 +2384,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="6">
+      <c r="A87" s="5">
         <v>43373</v>
       </c>
       <c r="B87">
@@ -2402,7 +2404,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="6">
+      <c r="A88" s="5">
         <v>43404</v>
       </c>
       <c r="B88">
@@ -2422,7 +2424,7 @@
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="6">
+      <c r="A89" s="5">
         <v>43434</v>
       </c>
       <c r="B89">
@@ -2442,7 +2444,7 @@
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="6">
+      <c r="A90" s="5">
         <v>43465</v>
       </c>
       <c r="B90">
@@ -2462,7 +2464,7 @@
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="6">
+      <c r="A91" s="5">
         <v>43496</v>
       </c>
       <c r="B91">
@@ -2482,7 +2484,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="6">
+      <c r="A92" s="5">
         <v>43524</v>
       </c>
       <c r="B92">
@@ -2502,7 +2504,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="6">
+      <c r="A93" s="5">
         <v>43555</v>
       </c>
       <c r="B93">
@@ -2522,7 +2524,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="6">
+      <c r="A94" s="5">
         <v>43585</v>
       </c>
       <c r="B94">
@@ -2542,7 +2544,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="6">
+      <c r="A95" s="5">
         <v>43616</v>
       </c>
       <c r="B95">
@@ -2562,7 +2564,7 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="6">
+      <c r="A96" s="5">
         <v>43646</v>
       </c>
       <c r="B96">
@@ -2582,7 +2584,7 @@
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="6">
+      <c r="A97" s="5">
         <v>43677</v>
       </c>
       <c r="B97">
@@ -2602,7 +2604,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="6">
+      <c r="A98" s="5">
         <v>43708</v>
       </c>
       <c r="B98">
@@ -2622,7 +2624,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="6">
+      <c r="A99" s="5">
         <v>43738</v>
       </c>
       <c r="B99">
@@ -2642,7 +2644,7 @@
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="6">
+      <c r="A100" s="5">
         <v>43769</v>
       </c>
       <c r="B100">
@@ -2662,7 +2664,7 @@
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="6">
+      <c r="A101" s="5">
         <v>43799</v>
       </c>
       <c r="B101">
@@ -2682,7 +2684,7 @@
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="6">
+      <c r="A102" s="5">
         <v>43830</v>
       </c>
       <c r="B102">
@@ -2702,7 +2704,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="6">
+      <c r="A103" s="5">
         <v>43861</v>
       </c>
       <c r="B103">
@@ -2722,7 +2724,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="6">
+      <c r="A104" s="5">
         <v>43890</v>
       </c>
       <c r="B104">
@@ -2742,7 +2744,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="6">
+      <c r="A105" s="5">
         <v>43921</v>
       </c>
       <c r="B105">
@@ -2762,7 +2764,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="6">
+      <c r="A106" s="5">
         <v>43951</v>
       </c>
       <c r="B106">
@@ -2782,7 +2784,7 @@
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="6">
+      <c r="A107" s="5">
         <v>43982</v>
       </c>
       <c r="B107">
@@ -2802,7 +2804,7 @@
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="6">
+      <c r="A108" s="5">
         <v>44012</v>
       </c>
       <c r="B108">
@@ -2822,7 +2824,7 @@
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="6">
+      <c r="A109" s="5">
         <v>44043</v>
       </c>
       <c r="B109">
@@ -2842,7 +2844,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="6">
+      <c r="A110" s="5">
         <v>44074</v>
       </c>
       <c r="B110">
@@ -2862,7 +2864,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="6">
+      <c r="A111" s="5">
         <v>44104</v>
       </c>
       <c r="B111">
@@ -2882,7 +2884,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="6">
+      <c r="A112" s="5">
         <v>44135</v>
       </c>
       <c r="B112">
@@ -2902,7 +2904,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="6">
+      <c r="A113" s="5">
         <v>44165</v>
       </c>
       <c r="B113">
@@ -2922,7 +2924,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="6">
+      <c r="A114" s="5">
         <v>44196</v>
       </c>
       <c r="B114">
@@ -2942,7 +2944,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="6">
+      <c r="A115" s="5">
         <v>44227</v>
       </c>
       <c r="B115">
@@ -2962,7 +2964,7 @@
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="6">
+      <c r="A116" s="5">
         <v>44255</v>
       </c>
       <c r="B116">
@@ -2982,7 +2984,7 @@
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="6">
+      <c r="A117" s="5">
         <v>44286</v>
       </c>
       <c r="B117">
@@ -3002,7 +3004,7 @@
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="6">
+      <c r="A118" s="5">
         <v>44316</v>
       </c>
       <c r="B118">
@@ -3022,7 +3024,7 @@
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="6">
+      <c r="A119" s="5">
         <v>44347</v>
       </c>
       <c r="B119">
@@ -3042,7 +3044,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="6">
+      <c r="A120" s="5">
         <v>44377</v>
       </c>
       <c r="B120">
@@ -3062,7 +3064,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="6">
+      <c r="A121" s="5">
         <v>44408</v>
       </c>
       <c r="B121">
@@ -3082,7 +3084,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="6">
+      <c r="A122" s="5">
         <v>44439</v>
       </c>
       <c r="B122">
@@ -3102,7 +3104,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="6">
+      <c r="A123" s="5">
         <v>44469</v>
       </c>
       <c r="B123">
@@ -3122,7 +3124,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="6">
+      <c r="A124" s="5">
         <v>44500</v>
       </c>
       <c r="B124">
@@ -3142,7 +3144,7 @@
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="6">
+      <c r="A125" s="5">
         <v>44530</v>
       </c>
       <c r="B125">
@@ -3162,7 +3164,7 @@
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="6">
+      <c r="A126" s="5">
         <v>44561</v>
       </c>
       <c r="B126">
@@ -3182,7 +3184,7 @@
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="6">
+      <c r="A127" s="5">
         <v>44592</v>
       </c>
       <c r="B127">
@@ -3202,7 +3204,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="6">
+      <c r="A128" s="5">
         <v>44620</v>
       </c>
       <c r="B128">
@@ -3222,7 +3224,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="6">
+      <c r="A129" s="5">
         <v>44651</v>
       </c>
       <c r="B129">
@@ -3242,7 +3244,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="6">
+      <c r="A130" s="5">
         <v>44681</v>
       </c>
       <c r="B130">
@@ -3262,7 +3264,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="6">
+      <c r="A131" s="5">
         <v>44712</v>
       </c>
       <c r="B131">
@@ -3282,7 +3284,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="6">
+      <c r="A132" s="5">
         <v>44742</v>
       </c>
       <c r="B132">
@@ -3302,7 +3304,7 @@
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="6">
+      <c r="A133" s="5">
         <v>44773</v>
       </c>
       <c r="B133">
@@ -3322,7 +3324,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="6">
+      <c r="A134" s="5">
         <v>44804</v>
       </c>
       <c r="B134">
@@ -3342,7 +3344,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="6">
+      <c r="A135" s="5">
         <v>44834</v>
       </c>
       <c r="B135">
@@ -3362,7 +3364,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" s="6">
+      <c r="A136" s="5">
         <v>44865</v>
       </c>
       <c r="B136">
@@ -3382,7 +3384,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="6">
+      <c r="A137" s="5">
         <v>44895</v>
       </c>
       <c r="B137">
@@ -3402,7 +3404,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" s="6">
+      <c r="A138" s="5">
         <v>44926</v>
       </c>
       <c r="B138">
@@ -3422,7 +3424,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" s="6">
+      <c r="A139" s="5">
         <v>44957</v>
       </c>
       <c r="B139">
@@ -3442,7 +3444,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="6">
+      <c r="A140" s="5">
         <v>44985</v>
       </c>
       <c r="B140">
@@ -3462,7 +3464,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="6">
+      <c r="A141" s="5">
         <v>45016</v>
       </c>
       <c r="B141">
@@ -3482,7 +3484,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="6">
+      <c r="A142" s="5">
         <v>45046</v>
       </c>
       <c r="B142">
@@ -3502,7 +3504,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="6">
+      <c r="A143" s="5">
         <v>45077</v>
       </c>
       <c r="B143">
@@ -3522,7 +3524,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="6">
+      <c r="A144" s="5">
         <v>45107</v>
       </c>
       <c r="B144">
@@ -3542,7 +3544,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="6">
+      <c r="A145" s="5">
         <v>45138</v>
       </c>
       <c r="B145">
@@ -3562,7 +3564,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="6">
+      <c r="A146" s="5">
         <v>45169</v>
       </c>
       <c r="B146">
@@ -3582,7 +3584,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="6">
+      <c r="A147" s="5">
         <v>45199</v>
       </c>
       <c r="B147">
@@ -3602,7 +3604,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="6">
+      <c r="A148" s="5">
         <v>45230</v>
       </c>
       <c r="B148">
@@ -3622,7 +3624,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="6">
+      <c r="A149" s="5">
         <v>45260</v>
       </c>
       <c r="B149">
@@ -3642,7 +3644,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="6">
+      <c r="A150" s="5">
         <v>45291</v>
       </c>
       <c r="B150">
@@ -3662,7 +3664,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="6">
+      <c r="A151" s="5">
         <v>45322</v>
       </c>
       <c r="B151">
@@ -3682,7 +3684,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="6">
+      <c r="A152" s="5">
         <v>45351</v>
       </c>
       <c r="B152">
@@ -3702,7 +3704,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="6">
+      <c r="A153" s="5">
         <v>45382</v>
       </c>
       <c r="B153">
@@ -3722,7 +3724,7 @@
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="6">
+      <c r="A154" s="5">
         <v>45412</v>
       </c>
       <c r="B154">
@@ -3742,7 +3744,7 @@
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="6">
+      <c r="A155" s="5">
         <v>45443</v>
       </c>
       <c r="B155">
@@ -3762,7 +3764,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="6">
+      <c r="A156" s="5">
         <v>45473</v>
       </c>
       <c r="B156">
@@ -3782,7 +3784,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="6">
+      <c r="A157" s="5">
         <v>45504</v>
       </c>
       <c r="B157">
@@ -3802,7 +3804,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="6">
+      <c r="A158" s="5">
         <v>45535</v>
       </c>
       <c r="B158">
@@ -3822,10 +3824,10 @@
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="6">
+      <c r="A159" s="5">
         <v>45565</v>
       </c>
-      <c r="B159" s="7">
+      <c r="B159" s="6">
         <v>1.37E-2</v>
       </c>
       <c r="C159">
@@ -3842,7 +3844,7 @@
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="6">
+      <c r="A160" s="5">
         <v>45596</v>
       </c>
       <c r="B160">
@@ -3862,7 +3864,7 @@
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A161" s="6">
+      <c r="A161" s="5">
         <v>45626</v>
       </c>
       <c r="B161">
@@ -3882,7 +3884,7 @@
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A162" s="6">
+      <c r="A162" s="5">
         <v>45657</v>
       </c>
       <c r="B162">
@@ -3902,7 +3904,7 @@
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A163" s="6">
+      <c r="A163" s="5">
         <v>45688</v>
       </c>
       <c r="B163">
@@ -3922,7 +3924,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A164" s="6">
+      <c r="A164" s="5">
         <v>45716</v>
       </c>
       <c r="B164">
@@ -3942,7 +3944,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A165" s="6">
+      <c r="A165" s="5">
         <v>45747</v>
       </c>
       <c r="B165">
@@ -3962,7 +3964,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A166" s="6">
+      <c r="A166" s="5">
         <v>45777</v>
       </c>
       <c r="B166">
@@ -3982,7 +3984,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A167" s="6">
+      <c r="A167" s="5">
         <v>45808</v>
       </c>
       <c r="B167">
@@ -4002,7 +4004,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A168" s="6">
+      <c r="A168" s="5">
         <v>45838</v>
       </c>
       <c r="B168">
@@ -4022,7 +4024,7 @@
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A169" s="6">
+      <c r="A169" s="5">
         <v>45869</v>
       </c>
       <c r="B169">
@@ -4042,7 +4044,7 @@
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A170" s="6">
+      <c r="A170" s="5">
         <v>45900</v>
       </c>
       <c r="B170">
@@ -4062,7 +4064,7 @@
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A171" s="6">
+      <c r="A171" s="5">
         <v>45930</v>
       </c>
       <c r="C171">
@@ -4087,9 +4089,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G171"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="194" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.83203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
@@ -8030,7 +8041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
